--- a/hardware/Change Requests.xlsx
+++ b/hardware/Change Requests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\repo\trunk\hardware\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA852BF-DB1D-416D-A042-EB2F02325C26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E84E01-9D5B-4B24-8A27-B42E861148D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>Terminal blocks footprint needs to be changed 200 mil apart</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>remove INA219</t>
+  </si>
+  <si>
+    <t>sch, pcb</t>
+  </si>
+  <si>
+    <t>pcb</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Schematics Update</t>
+  </si>
+  <si>
+    <t>PCB Update</t>
   </si>
 </sst>
 </file>
@@ -387,122 +402,181 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="55.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="L15">
-        <f>0.92/1.2-0.2</f>
-        <v>0.56666666666666665</v>
-      </c>
-      <c r="R15">
-        <f>1/27</f>
-        <v>3.7037037037037035E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
     </row>
